--- a/src/assets/documents/test.xlsx
+++ b/src/assets/documents/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
-    <t>预览用</t>
+    <t>abc</t>
   </si>
   <si>
-    <t>嘻嘻</t>
-  </si>
-  <si>
-    <t>哈哈</t>
+    <t>hahhah</t>
   </si>
   <si>
     <t>呀呀呀</t>
+  </si>
+  <si>
+    <t>这是</t>
+  </si>
+  <si>
+    <t>Sheet</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +67,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,138 +549,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -992,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1016,26 +1032,26 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,14 +1063,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1064,14 +1092,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
